--- a/biology/Zoologie/Carniadactylus/Carniadactylus.xlsx
+++ b/biology/Zoologie/Carniadactylus/Carniadactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carniadactylus rosenfeldi
 Carniadactylus est un  genre éteint de ptérosaures de la famille des Eudimorphodontidae, dont il est le seul genre avec Eudimorphodon. Il vivait en Europe au cours du Trias supérieur, il y a 228 millions d'années.
